--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/04.TraBH/TBH210531_DLNgocBao.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/04.TraBH/TBH210531_DLNgocBao.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$24</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>Xử lý phần cứng</t>
+  </si>
+  <si>
+    <t>Dây nguồn</t>
+  </si>
+  <si>
+    <t>SL: 2</t>
+  </si>
+  <si>
+    <t>Trả đổi mới</t>
   </si>
 </sst>
 </file>
@@ -687,6 +696,78 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -722,78 +803,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1149,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1172,137 +1181,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="42" t="s">
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="45" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="45" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="48" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="38"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
       <c r="M9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
       <c r="L10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1358,7 +1367,7 @@
       <c r="H12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="65"/>
+      <c r="I12" s="30"/>
       <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1382,7 +1391,7 @@
       <c r="H13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="65"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1408,59 +1417,68 @@
       <c r="H14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="65"/>
+      <c r="I14" s="30"/>
       <c r="J14" s="21"/>
     </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>4</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="15" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="60" t="s">
+      <c r="E17" s="15"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-    </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="64" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-    </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="26"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
@@ -1485,54 +1503,65 @@
       <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="27"/>
-    </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="63" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-    </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-    </row>
-    <row r="64" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+    </row>
+    <row r="65" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A1:E4"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="A6:I6"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G23:I23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
